--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Inventory\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0749AC-EE53-4257-81BF-2A5CFB1B3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFB8B1-76A5-4841-B22B-D39ABFA81092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>SL. No</t>
   </si>
@@ -371,6 +371,25 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On top it should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Est. value at count, No. of items and Last counted on"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
   </si>
 </sst>
 </file>
@@ -789,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1144,39 +1163,39 @@
         <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1190,16 +1209,16 @@
         <v>51</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1210,19 +1229,43 @@
         <v>47</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFB8B1-76A5-4841-B22B-D39ABFA81092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED56F9-E626-42EE-96B9-90F0378932CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>SL. No</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List-&gt; Est. value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display a column showing like same column in Inventory </t>
   </si>
 </sst>
 </file>
@@ -808,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,6 +1270,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED56F9-E626-42EE-96B9-90F0378932CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA5BB54-3E7B-49A2-844C-4D281C8F76A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
   <si>
     <t>SL. No</t>
   </si>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1285,6 +1285,12 @@
       </c>
       <c r="E20" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFB8B1-76A5-4841-B22B-D39ABFA81092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FC777E-C39A-4943-96F7-9B91204348DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,6 +136,246 @@
     <t>If click the Export I will download the file</t>
   </si>
   <si>
+    <t xml:space="preserve">After clicks the start stock count it goes to New stock count screen </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock count page</t>
+    </r>
+  </si>
+  <si>
+    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it shows Update stock count? And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,after clicking it returns back to SKU screen</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the SKU page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SKU-&gt; Actions -&gt; Add stock adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
+  </si>
+  <si>
+    <t>Save and update the Add stock adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
+  </si>
+  <si>
+    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
+  </si>
+  <si>
+    <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions -&gt;Delete list</t>
+  </si>
+  <si>
+    <t>if you Remove from inventory I will be deleted from list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking the Delete list ,pop up will be Are you sure? And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove from inventory</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt;New stock count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It comes Search list, All suppliers, Status, Search , Add sku, Settings, SKU Supplier, Actions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the Search list, All suppliers, Status, Search , Add sku, Settings, SKU Supplier, Actions </t>
+  </si>
+  <si>
+    <t>Buyers Home page</t>
+  </si>
+  <si>
+    <t>View Inventory page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed the Select inventory list ,here select from the dropdown list and Done </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, then SKU will returns back to SKU list</t>
+    </r>
+  </si>
+  <si>
+    <t>It will display the SKU list</t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Add SKU</t>
+  </si>
+  <si>
+    <t>List-&gt; Select a particular SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Add to list screen, shows SKU name search box, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM                                                                                                                                                     2.Add to list screen displayed ,select check box and click Done                      </t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It get displayed the successful </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rename list and Delete list                                                                          1.Click 'Rename list' and save                                                                     2.Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Delete list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and type DELETE ,click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On top it should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Est. value at count, No. of items and Last counted on"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">it shows pop up page </t>
     </r>
@@ -148,248 +388,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Outlet dropdown, Inventory list dropdown and start stock count</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">After clicks the start stock count it goes to New stock count screen </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock count page</t>
-    </r>
-  </si>
-  <si>
-    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it shows Update stock count? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save stock count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,after clicking it returns back to SKU screen</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the SKU page </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SKU-&gt; Actions -&gt; Add stock adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
-  </si>
-  <si>
-    <t>Save and update the Add stock adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
-  </si>
-  <si>
-    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
-  </si>
-  <si>
-    <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt; Actions -&gt;Delete list</t>
-  </si>
-  <si>
-    <t>if you Remove from inventory I will be deleted from list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking the Delete list ,pop up will be Are you sure? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove from inventory</t>
-    </r>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt;New stock count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It comes Search list, All suppliers, Status, Search , Add sku, Settings, SKU Supplier, Actions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the Search list, All suppliers, Status, Search , Add sku, Settings, SKU Supplier, Actions </t>
-  </si>
-  <si>
-    <t>Buyers Home page</t>
-  </si>
-  <si>
-    <t>View Inventory page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed the Select inventory list ,here select from the dropdown list and Done </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, then SKU will returns back to SKU list</t>
-    </r>
-  </si>
-  <si>
-    <t>It will display the SKU list</t>
-  </si>
-  <si>
-    <t>List-&gt;Select a particular SKU-&gt; Add SKU</t>
-  </si>
-  <si>
-    <t>List-&gt; Select a particular SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Add to list screen, shows SKU name search box, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM                                                                                                                                                     2.Add to list screen displayed ,select check box and click Done                      </t>
-  </si>
-  <si>
-    <t>List-&gt;Select a particular SKU-&gt; Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It get displayed the successful </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rename list and Delete list                                                                          1.Click 'Rename list' and save                                                                     2.Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Delete list'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and type DELETE ,click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On top it should have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Est. value at count, No. of items and Last counted on"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
+      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the todays date) and start stock count</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -999,13 +999,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>11</v>
@@ -1022,13 +1022,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>11</v>
@@ -1045,13 +1045,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -1068,13 +1068,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -1091,13 +1091,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>11</v>
@@ -1114,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -1137,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>11</v>
@@ -1160,13 +1160,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>11</v>
@@ -1183,13 +1183,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>11</v>
@@ -1200,19 +1200,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>11</v>
@@ -1223,19 +1223,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>11</v>
@@ -1246,19 +1246,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FC777E-C39A-4943-96F7-9B91204348DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36E38B-C190-4427-8E82-D6D60223FAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1011,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36E38B-C190-4427-8E82-D6D60223FAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C381A-9539-4106-B9D2-779D50EEADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>SL. No</t>
   </si>
@@ -57,12 +57,319 @@
     <t>View Inventory menu page</t>
   </si>
   <si>
-    <t xml:space="preserve">It gets displayed </t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
+    <t>Outlets -&gt;SKU-&gt; Lists</t>
+  </si>
+  <si>
+    <t>1.It shows Est.value at count and No.of items                                    2.List, Est.value, Items, last counted, Actions, New list and Export,New stock count and Record adjustment</t>
+  </si>
+  <si>
+    <t>It gets displayed the List page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlets -&gt;SKU-&gt; Lists-&gt; Search list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the search box type the particular list name and select </t>
+  </si>
+  <si>
+    <t>It displayed the details of particular SKU list , Search list, All suppliers, Status, Search button, Add SKU, Settings, New stock count, Record adjustment</t>
+  </si>
+  <si>
+    <t>Outlets -&gt;SKU-&gt; Lists-&gt;New list</t>
+  </si>
+  <si>
+    <t>Create new list pop up will shows, List name and Next button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type list name and click Next button, it goes to Add to list screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to list screen ,shows SKU name, All suppliers, and Done </t>
+  </si>
+  <si>
+    <t>Select SKU and and click Done button ,it added successfully</t>
+  </si>
+  <si>
+    <t>Click 'X' it return back to previous page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Export"</t>
+    </r>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>If click the Export I will download the file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After clicks the start stock count it goes to New stock count screen </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock count page</t>
+    </r>
+  </si>
+  <si>
+    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it shows Update stock count? And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,after clicking it returns back to SKU screen</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the SKU page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SKU-&gt; Actions -&gt; Add stock adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
+  </si>
+  <si>
+    <t>Save and update the Add stock adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
+  </si>
+  <si>
+    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
+  </si>
+  <si>
+    <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions -&gt;Delete list</t>
+  </si>
+  <si>
+    <t>if you Remove from inventory I will be deleted from list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking the Delete list ,pop up will be Are you sure? And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove from inventory</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt;New stock count</t>
+  </si>
+  <si>
+    <t>Buyers Home page</t>
+  </si>
+  <si>
+    <t>View Inventory page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed the Select inventory list ,here select from the dropdown list and Done </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, then SKU will returns back to SKU list</t>
+    </r>
+  </si>
+  <si>
+    <t>It will display the SKU list</t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Add SKU</t>
+  </si>
+  <si>
+    <t>List-&gt; Select a particular SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Add to list screen, shows SKU name search box, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM                                                                                                                                                     2.Add to list screen displayed ,select check box and click Done                      </t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It get displayed the successful </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rename list and Delete list                                                                          1.Click 'Rename list' and save                                                                     2.Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Delete list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and type DELETE ,click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On top it should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Est. value at count, No. of items and Last counted on"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the todays date) and start stock count</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlets -&gt; Lists-&gt; Actions </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Click the Actions dropdown it shows the </t>
     </r>
@@ -75,321 +382,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Delete list'</t>
-    </r>
-  </si>
-  <si>
-    <t>Outlets -&gt;SKU-&gt; Lists</t>
-  </si>
-  <si>
-    <t>1.It shows Est.value at count and No.of items                                    2.List, Est.value, Items, last counted, Actions, New list and Export,New stock count and Record adjustment</t>
-  </si>
-  <si>
-    <t>It gets displayed the List page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outlets -&gt;SKU-&gt; Lists-&gt; Search list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the search box type the particular list name and select </t>
-  </si>
-  <si>
-    <t>It displayed the details of particular SKU list , Search list, All suppliers, Status, Search button, Add SKU, Settings, New stock count, Record adjustment</t>
-  </si>
-  <si>
-    <t>Outlets -&gt;SKU-&gt; Lists-&gt;New list</t>
-  </si>
-  <si>
-    <t>Create new list pop up will shows, List name and Next button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type list name and click Next button, it goes to Add to list screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add to list screen ,shows SKU name, All suppliers, and Done </t>
-  </si>
-  <si>
-    <t>Select SKU and and click Done button ,it added successfully</t>
-  </si>
-  <si>
-    <t>Click 'X' it return back to previous page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
+      <t>'Start stock count and Delete list'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed ,once if we click the Start stock count its redirecting to New stock count page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It comes Search SKU, All suppliers dropdown, Status, Search , Add SKU, Settings, SKU,UOM, Par, Last count, Adjustment, Incoming, Received, Est.value and Actions </t>
+  </si>
+  <si>
+    <t>List-&gt; Select a particular SKU(new)par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the Search list, All suppliers, Status, Search , Add SKU, Settings, SKU, UOM, Par, Last count, Adjustment, Incoming, Received, Est.value and Actions </t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Actions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click the Actions dropdown it should show </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Export"</t>
-    </r>
-  </si>
-  <si>
-    <t>As expected</t>
-  </si>
-  <si>
-    <t>If click the Export I will download the file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After clicks the start stock count it goes to New stock count screen </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock count page</t>
-    </r>
-  </si>
-  <si>
-    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it shows Update stock count? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save stock count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,after clicking it returns back to SKU screen</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the SKU page </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SKU-&gt; Actions -&gt; Add stock adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
-  </si>
-  <si>
-    <t>Save and update the Add stock adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
-  </si>
-  <si>
-    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
-  </si>
-  <si>
-    <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt; Actions -&gt;Delete list</t>
-  </si>
-  <si>
-    <t>if you Remove from inventory I will be deleted from list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking the Delete list ,pop up will be Are you sure? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove from inventory</t>
-    </r>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt;New stock count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It comes Search list, All suppliers, Status, Search , Add sku, Settings, SKU Supplier, Actions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the Search list, All suppliers, Status, Search , Add sku, Settings, SKU Supplier, Actions </t>
-  </si>
-  <si>
-    <t>Buyers Home page</t>
-  </si>
-  <si>
-    <t>View Inventory page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed the Select inventory list ,here select from the dropdown list and Done </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, then SKU will returns back to SKU list</t>
-    </r>
-  </si>
-  <si>
-    <t>It will display the SKU list</t>
-  </si>
-  <si>
-    <t>List-&gt;Select a particular SKU-&gt; Add SKU</t>
-  </si>
-  <si>
-    <t>List-&gt; Select a particular SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Add to list screen, shows SKU name search box, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM                                                                                                                                                     2.Add to list screen displayed ,select check box and click Done                      </t>
-  </si>
-  <si>
-    <t>List-&gt;Select a particular SKU-&gt; Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It get displayed the successful </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rename list and Delete list                                                                          1.Click 'Rename list' and save                                                                     2.Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Delete list'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and type DELETE ,click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On top it should have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Est. value at count, No. of items and Last counted on"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the todays date) and start stock count</t>
-    </r>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the 'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
   </si>
 </sst>
 </file>
@@ -521,13 +549,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,16 +889,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,16 +912,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,16 +935,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,16 +958,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,16 +981,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,16 +1004,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -999,16 +1027,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,16 +1050,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1045,16 +1073,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,16 +1096,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,19 +1119,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1114,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,16 +1165,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>11</v>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,20 +1187,20 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>51</v>
+      <c r="D15" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1182,17 +1210,17 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>51</v>
+      <c r="D16" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1200,22 +1228,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,22 +1251,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,22 +1274,45 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C381A-9539-4106-B9D2-779D50EEADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB315511-06C8-430A-ADC3-D39B00607EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>SL. No</t>
   </si>
@@ -367,9 +367,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Outlets -&gt; Lists-&gt; Actions </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Click the Actions dropdown it shows the </t>
     </r>
@@ -418,6 +415,41 @@
   </si>
   <si>
     <t>It gets displayed the 'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions-&gt;Start stock count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the Start stock count immediately load the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'new stock count'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page and if there is an existing draft, ask users to decide whether to use draft or start new.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed as expected click the Start stock count its redirecting to New stock count page </t>
   </si>
 </sst>
 </file>
@@ -526,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -552,10 +584,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,19 +1170,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1165,19 +1193,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1187,20 +1215,20 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>47</v>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1211,42 +1239,42 @@
         <v>9</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1260,16 +1288,16 @@
         <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1280,19 +1308,19 @@
         <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1303,15 +1331,38 @@
         <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="12" t="s">
+      <c r="G21" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB315511-06C8-430A-ADC3-D39B00607EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5AF82-9A0E-4D35-92AD-2FF665E8112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Outlets -&gt;SKU-&gt; Lists</t>
   </si>
   <si>
-    <t>1.It shows Est.value at count and No.of items                                    2.List, Est.value, Items, last counted, Actions, New list and Export,New stock count and Record adjustment</t>
-  </si>
-  <si>
     <t>It gets displayed the List page</t>
   </si>
   <si>
@@ -120,8 +117,11 @@
     <t xml:space="preserve">After clicks the start stock count it goes to New stock count screen </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
+    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
     </r>
     <r>
       <rPr>
@@ -132,324 +132,345 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Save button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,it shows Update stock count? And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save stock count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,after clicking it returns back to SKU screen</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the SKU page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SKU-&gt; Actions -&gt; Add stock adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
+  </si>
+  <si>
+    <t>Save and update the Add stock adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
+  </si>
+  <si>
+    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
+  </si>
+  <si>
+    <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions -&gt;Delete list</t>
+  </si>
+  <si>
+    <t>if you Remove from inventory I will be deleted from list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking the Delete list ,pop up will be Are you sure? And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove from inventory</t>
+    </r>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt;New stock count</t>
+  </si>
+  <si>
+    <t>Buyers Home page</t>
+  </si>
+  <si>
+    <t>View Inventory page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed the Select inventory list ,here select from the dropdown list and Done </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, then SKU will returns back to SKU list</t>
+    </r>
+  </si>
+  <si>
+    <t>It will display the SKU list</t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Add SKU</t>
+  </si>
+  <si>
+    <t>List-&gt; Select a particular SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Add to list screen, shows SKU name search box, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM                                                                                                                                                     2.Add to list screen displayed ,select check box and click Done                      </t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It get displayed the successful </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rename list and Delete list                                                                          1.Click 'Rename list' and save                                                                     2.Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Delete list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and type DELETE ,click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On top it should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Est. value at count, No. of items and Last counted on"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Start stock count and Delete list'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed ,once if we click the Start stock count its redirecting to New stock count page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It comes Search SKU, All suppliers dropdown, Status, Search , Add SKU, Settings, SKU,UOM, Par, Last count, Adjustment, Incoming, Received, Est.value and Actions </t>
+  </si>
+  <si>
+    <t>List-&gt; Select a particular SKU(new)par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the Search list, All suppliers, Status, Search , Add SKU, Settings, SKU, UOM, Par, Last count, Adjustment, Incoming, Received, Est.value and Actions </t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Actions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click the Actions dropdown it should show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the 'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions-&gt;Start stock count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the Start stock count immediately load the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'new stock count'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page and if there is an existing draft, ask users to decide whether to use draft or start new.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed as expected click the Start stock count its redirecting to New stock count page </t>
+  </si>
+  <si>
+    <t>1.It shows Est.value at count and No.of items                                    2.List, Est.value, Items, last counted, Actions, New list and Export,New stock count, Adjustment and Consumption report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the todays date) and Start stock count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Outlet and Inventory and click Start stock count ,it goes to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>stock count page</t>
     </r>
-  </si>
-  <si>
-    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Save button </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,it shows Update stock count? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save stock count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,after clicking it returns back to SKU screen</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the SKU page </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SKU-&gt; Actions -&gt; Add stock adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.It will shows Adjustment record page like "Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes and Save"                                  2. Click Save ,Toaster message is Inventory added                               </t>
-  </si>
-  <si>
-    <t>Save and update the Add stock adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
-  </si>
-  <si>
-    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
-  </si>
-  <si>
-    <t>Enter the required data and click Save button then it comes Successfully Adjustment added</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt; Actions -&gt;Delete list</t>
-  </si>
-  <si>
-    <t>if you Remove from inventory I will be deleted from list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking the Delete list ,pop up will be Are you sure? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove from inventory</t>
-    </r>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt;New stock count</t>
-  </si>
-  <si>
-    <t>Buyers Home page</t>
-  </si>
-  <si>
-    <t>View Inventory page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed the Select inventory list ,here select from the dropdown list and Done </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, then SKU will returns back to SKU list</t>
-    </r>
-  </si>
-  <si>
-    <t>It will display the SKU list</t>
-  </si>
-  <si>
-    <t>List-&gt;Select a particular SKU-&gt; Add SKU</t>
-  </si>
-  <si>
-    <t>List-&gt; Select a particular SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Add to list screen, shows SKU name search box, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM                                                                                                                                                     2.Add to list screen displayed ,select check box and click Done                      </t>
-  </si>
-  <si>
-    <t>List-&gt;Select a particular SKU-&gt; Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It get displayed the successful </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rename list and Delete list                                                                          1.Click 'Rename list' and save                                                                     2.Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Delete list'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and type DELETE ,click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On top it should have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Est. value at count, No. of items and Last counted on"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed "Amount, Items and Date and 24hours formate time"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the todays date) and start stock count</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the Actions dropdown it shows the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Start stock count and Delete list'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed ,once if we click the Start stock count its redirecting to New stock count page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It comes Search SKU, All suppliers dropdown, Status, Search , Add SKU, Settings, SKU,UOM, Par, Last count, Adjustment, Incoming, Received, Est.value and Actions </t>
-  </si>
-  <si>
-    <t>List-&gt; Select a particular SKU(new)par</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the Search list, All suppliers, Status, Search , Add SKU, Settings, SKU, UOM, Par, Last count, Adjustment, Incoming, Received, Est.value and Actions </t>
-  </si>
-  <si>
-    <t>List-&gt;Select a particular SKU-&gt; Actions</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User click the Actions dropdown it should show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the 'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt; Actions</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt; Actions-&gt;Start stock count</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User click on the Start stock count immediately load the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'new stock count'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page and if there is an existing draft, ask users to decide whether to use draft or start new.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed as expected click the Start stock count its redirecting to New stock count page </t>
   </si>
 </sst>
 </file>
@@ -866,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,10 +941,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>10</v>
@@ -940,13 +961,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -963,13 +984,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -986,13 +1007,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1009,13 +1030,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1032,13 +1053,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>10</v>
@@ -1055,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>10</v>
@@ -1078,13 +1099,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>10</v>
@@ -1101,13 +1122,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>10</v>
@@ -1124,13 +1145,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>10</v>
@@ -1147,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>10</v>
@@ -1170,13 +1191,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>10</v>
@@ -1193,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
@@ -1216,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>10</v>
@@ -1239,13 +1260,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>10</v>
@@ -1262,13 +1283,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>10</v>
@@ -1279,19 +1300,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>10</v>
@@ -1302,19 +1323,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>10</v>
@@ -1325,19 +1346,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>10</v>
@@ -1348,19 +1369,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>10</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5AF82-9A0E-4D35-92AD-2FF665E8112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3761B-71A7-46CC-B8FE-1196140A0B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>View Inventory page</t>
   </si>
   <si>
-    <t xml:space="preserve">It gets displayed the Select inventory list ,here select from the dropdown list and Done </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">After clicking </t>
     </r>
@@ -248,9 +245,6 @@
     </r>
   </si>
   <si>
-    <t>It will display the SKU list</t>
-  </si>
-  <si>
     <t>List-&gt;Select a particular SKU-&gt; Add SKU</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>List-&gt;Select a particular SKU-&gt; Settings</t>
   </si>
   <si>
-    <t xml:space="preserve">It get displayed the successful </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Rename list and Delete list                                                                          1.Click 'Rename list' and save                                                                     2.Click </t>
     </r>
@@ -348,9 +339,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">It gets displayed ,once if we click the Start stock count its redirecting to New stock count page </t>
-  </si>
-  <si>
     <t xml:space="preserve">It comes Search SKU, All suppliers dropdown, Status, Search , Add SKU, Settings, SKU,UOM, Par, Last count, Adjustment, Incoming, Received, Est.value and Actions </t>
   </si>
   <si>
@@ -414,9 +402,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">It gets displayed as expected click the Start stock count its redirecting to New stock count page </t>
-  </si>
-  <si>
     <t>1.It shows Est.value at count and No.of items                                    2.List, Est.value, Items, last counted, Actions, New list and Export,New stock count, Adjustment and Consumption report</t>
   </si>
   <si>
@@ -471,6 +456,21 @@
       </rPr>
       <t>stock count page</t>
     </r>
+  </si>
+  <si>
+    <t>It get displayed the successful .</t>
+  </si>
+  <si>
+    <t>It will display the SKU list.</t>
+  </si>
+  <si>
+    <t>It gets displayed the Select inventory list ,here select from the dropdown list and Done .</t>
+  </si>
+  <si>
+    <t>It gets displayed as expected click the Start stock count its redirecting to New stock count page .</t>
+  </si>
+  <si>
+    <t>It gets displayed ,once if we click the Start stock count its redirecting to New stock count page .</t>
   </si>
 </sst>
 </file>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
@@ -1079,7 +1079,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>25</v>
@@ -1102,7 +1102,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>26</v>
@@ -1191,13 +1191,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>10</v>
@@ -1214,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
@@ -1260,13 +1260,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>10</v>
@@ -1283,13 +1283,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>10</v>
@@ -1306,13 +1306,13 @@
         <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>10</v>
@@ -1329,13 +1329,13 @@
         <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>10</v>
@@ -1352,13 +1352,13 @@
         <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>10</v>
@@ -1375,13 +1375,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>10</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Lists testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3761B-71A7-46CC-B8FE-1196140A0B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3BC38E-BB41-41AD-90BC-18C4A5986D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>SL. No</t>
   </si>
@@ -351,6 +351,216 @@
     <t>List-&gt;Select a particular SKU-&gt; Actions</t>
   </si>
   <si>
+    <t>It gets displayed the 'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions</t>
+  </si>
+  <si>
+    <t>Outlets -&gt; Lists-&gt; Actions-&gt;Start stock count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User click on the Start stock count immediately load the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'new stock count'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page and if there is an existing draft, ask users to decide whether to use draft or start new.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.It shows Est.value at count and No.of items                                    2.List, Est.value, Items, last counted, Actions, New list and Export,New stock count, Adjustment and Consumption report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the todays date) and Start stock count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Select Outlet and Inventory and click Start stock count ,it goes to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stock count page</t>
+    </r>
+  </si>
+  <si>
+    <t>It get displayed the successful .</t>
+  </si>
+  <si>
+    <t>It will display the SKU list.</t>
+  </si>
+  <si>
+    <t>It gets displayed the Select inventory list ,here select from the dropdown list and Done .</t>
+  </si>
+  <si>
+    <t>It gets displayed as expected click the Start stock count its redirecting to New stock count page .</t>
+  </si>
+  <si>
+    <t>It gets displayed ,once if we click the Start stock count its redirecting to New stock count page .</t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; checkbox -&gt; Clear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if you click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Clear'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,it cleared and return to SKU screen</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed it return back to SKU page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.if you click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Remove from inventory'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, It will shows pop up Are you sure? And Remove from inventory.                                                                          2.If you click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Remove from inventory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it successfully removed from the list</t>
+    </r>
+  </si>
+  <si>
+    <t>It successfully removed from the list.</t>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Check box-&gt;Remove from inventory</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upon saving stay on current page and show a toast message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Selected items(s) moved to name"</t>
+    </r>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Check box-&gt;Move to(new)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">User click the Actions dropdown it should show </t>
     </r>
@@ -363,114 +573,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the 'Add stock adjustment, Amend 'last count'quality, Edit settings and Remove from list'</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt; Actions</t>
-  </si>
-  <si>
-    <t>Outlets -&gt; Lists-&gt; Actions-&gt;Start stock count</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User click on the Start stock count immediately load the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'new stock count'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page and if there is an existing draft, ask users to decide whether to use draft or start new.</t>
-    </r>
-  </si>
-  <si>
-    <t>1.It shows Est.value at count and No.of items                                    2.List, Est.value, Items, last counted, Actions, New list and Export,New stock count, Adjustment and Consumption report</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the todays date) and Start stock count</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Select Outlet and Inventory and click Start stock count ,it goes to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> New</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stock count page</t>
-    </r>
-  </si>
-  <si>
-    <t>It get displayed the successful .</t>
-  </si>
-  <si>
-    <t>It will display the SKU list.</t>
-  </si>
-  <si>
-    <t>It gets displayed the Select inventory list ,here select from the dropdown list and Done .</t>
-  </si>
-  <si>
-    <t>It gets displayed as expected click the Start stock count its redirecting to New stock count page .</t>
-  </si>
-  <si>
-    <t>It gets displayed ,once if we click the Start stock count its redirecting to New stock count page .</t>
+      <t>'Add stock adjustment, Amend 'last count'quality, Edit settings, Move to.. and Remove from list'</t>
+    </r>
+  </si>
+  <si>
+    <t>List-&gt;Select a particular SKU-&gt; Actions-&gt;Amend 'last count' quality</t>
+  </si>
+  <si>
+    <t>It shows dialog of Stock count amendment of Item name, Quality, Update stock count(green) and close icon</t>
+  </si>
+  <si>
+    <t>It gets displayed toastr as Created adjustment successfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Move to' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User selects 1 or more items, then opens the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Move to' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dialog select list dropdown and Save</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -885,23 +1045,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="45.54296875" customWidth="1"/>
+    <col min="5" max="5" width="55.54296875" customWidth="1"/>
+    <col min="6" max="6" width="54.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -941,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
@@ -950,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -973,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -996,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1019,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1042,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1065,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1079,7 +1239,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>25</v>
@@ -1088,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1102,7 +1262,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>26</v>
@@ -1111,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1134,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1157,7 +1317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1180,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1191,19 +1351,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1214,19 +1374,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1249,7 +1409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1272,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1295,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1312,13 +1472,13 @@
         <v>44</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1335,13 +1495,13 @@
         <v>41</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1358,13 +1518,13 @@
         <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1378,12 +1538,102 @@
         <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="G21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
